--- a/CommonGardenExperiment_2020Data/raw_data/Original_files/2020_Datacollection4_Full_WeevilScarLength.xlsx
+++ b/CommonGardenExperiment_2020Data/raw_data/Original_files/2020_Datacollection4_Full_WeevilScarLength.xlsx
@@ -1,22 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbrei\Documents\R_Projects\Chapter2_KSR\CommonGardenExperiment_2020Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbrei\Documents\R_Projects\chapter_two\CommonGardenExperiment_2020Data\raw_data\Original_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CD82CF7-290A-455D-BDE8-5155FCE6D0B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{440504F6-E8E8-4FD2-AE24-08EB77B93759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Small scar graph" sheetId="3" r:id="rId3"/>
-    <sheet name="Protocol" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="Z_7C575CA0_4279_4B75_9B8E_BE4441FF8C91_.wvu.FilterData" localSheetId="0" hidden="1">Data!$A$1:$H$967</definedName>
@@ -39,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="16">
   <si>
     <t>Row</t>
   </si>
@@ -86,20 +83,6 @@
     <t>7/27/2020</t>
   </si>
   <si>
-    <t>Scar</t>
-  </si>
-  <si>
-    <t>Length</t>
-  </si>
-  <si>
-    <t>Avg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methodology: sum up all scars for all ramets per pot- even those scars that are relatively short (~5 cm or shorter) and don't resemble the typical linear scars. Like Kavya mentioned a couple weeks ago, we did find evidence suggesting oviposition within these small scars when we probed plants growing outside the plot.
-For the short scars that represent potential singleton eggs, if you are confident that they typically represent egg holes, then I suggest determining their avg length (eg N=20 singletons) and then just count those to save time. Afterwards, add their length to the long ones as  number single holes * avg length of single holes
-</t>
-  </si>
-  <si>
     <t>Scar_length_mm_nocalculations</t>
   </si>
 </sst>
@@ -107,7 +90,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -140,30 +123,13 @@
       <name val="Arial"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFCC0000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -176,14 +142,8 @@
         <bgColor rgb="FFFFE599"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -256,18 +216,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -372,17 +325,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -398,356 +341,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="1"/>
-  <c:style val="2"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Small scar graph'!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Length</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="7"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln cmpd="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Small scar graph'!$B$2:$B$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>3.48</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.5999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.27</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.4500000000000002</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.52</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.94</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.48</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.68</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.17</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.84</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.96</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.61</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.67</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.4900000000000002</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3.25</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2.7</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3.12</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3.48</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>3.1655000000000006</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6BA8-4662-8C0E-CD3C8688593B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1358164807"/>
-        <c:axId val="341682636"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1358164807"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="B7B7B7"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="CCCCCC">
-                  <a:alpha val="0"/>
-                </a:srgbClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="341682636"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="341682636"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="B7B7B7"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="CCCCCC">
-                  <a:alpha val="0"/>
-                </a:srgbClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1358164807"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0">
-            <a:defRPr b="0">
-              <a:solidFill>
-                <a:srgbClr val="1A1A1A"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="5715000" cy="3533775"/>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1" title="Chart">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -954,10 +547,10 @@
   <dimension ref="A1:J967"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C699" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C682" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K715" sqref="K715"/>
+      <selection pane="bottomRight" activeCell="K709" sqref="K709"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1003,7 +596,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1409,7 +1002,7 @@
       <c r="F14" s="10">
         <v>5</v>
       </c>
-      <c r="G14" s="46">
+      <c r="G14" s="38">
         <v>44043</v>
       </c>
       <c r="H14" s="13">
@@ -1441,7 +1034,7 @@
       <c r="F15" s="10">
         <v>5</v>
       </c>
-      <c r="G15" s="46">
+      <c r="G15" s="38">
         <v>44043</v>
       </c>
       <c r="H15" s="13">
@@ -1473,7 +1066,7 @@
       <c r="F16" s="16">
         <v>1</v>
       </c>
-      <c r="G16" s="46">
+      <c r="G16" s="38">
         <v>44043</v>
       </c>
       <c r="H16" s="19">
@@ -1505,7 +1098,7 @@
       <c r="F17" s="10">
         <v>5</v>
       </c>
-      <c r="G17" s="46">
+      <c r="G17" s="38">
         <v>44043</v>
       </c>
       <c r="H17" s="13">
@@ -1537,7 +1130,7 @@
       <c r="F18" s="10">
         <v>5</v>
       </c>
-      <c r="G18" s="46">
+      <c r="G18" s="38">
         <v>44043</v>
       </c>
       <c r="H18" s="13">
@@ -1569,7 +1162,7 @@
       <c r="F19" s="10">
         <v>2</v>
       </c>
-      <c r="G19" s="46">
+      <c r="G19" s="38">
         <v>44043</v>
       </c>
       <c r="H19" s="13">
@@ -1601,7 +1194,7 @@
       <c r="F20" s="16">
         <v>2</v>
       </c>
-      <c r="G20" s="46">
+      <c r="G20" s="38">
         <v>44043</v>
       </c>
       <c r="H20" s="19">
@@ -1633,7 +1226,7 @@
       <c r="F21" s="10">
         <v>5</v>
       </c>
-      <c r="G21" s="46">
+      <c r="G21" s="38">
         <v>44043</v>
       </c>
       <c r="H21" s="13">
@@ -1665,7 +1258,7 @@
       <c r="F22" s="16">
         <v>2</v>
       </c>
-      <c r="G22" s="46">
+      <c r="G22" s="38">
         <v>44043</v>
       </c>
       <c r="H22" s="19">
@@ -1697,7 +1290,7 @@
       <c r="F23" s="10">
         <v>5</v>
       </c>
-      <c r="G23" s="46">
+      <c r="G23" s="38">
         <v>44043</v>
       </c>
       <c r="H23" s="13">
@@ -1729,7 +1322,7 @@
       <c r="F24" s="16">
         <v>5</v>
       </c>
-      <c r="G24" s="46">
+      <c r="G24" s="38">
         <v>44043</v>
       </c>
       <c r="H24" s="19">
@@ -1761,7 +1354,7 @@
       <c r="F25" s="10">
         <v>5</v>
       </c>
-      <c r="G25" s="46">
+      <c r="G25" s="38">
         <v>44043</v>
       </c>
       <c r="H25" s="13">
@@ -1793,7 +1386,7 @@
       <c r="F26" s="10">
         <v>2</v>
       </c>
-      <c r="G26" s="46">
+      <c r="G26" s="38">
         <v>44043</v>
       </c>
       <c r="H26" s="13">
@@ -1825,7 +1418,7 @@
       <c r="F27" s="10">
         <v>4</v>
       </c>
-      <c r="G27" s="46">
+      <c r="G27" s="38">
         <v>44043</v>
       </c>
       <c r="H27" s="13">
@@ -1857,7 +1450,7 @@
       <c r="F28" s="10">
         <v>5</v>
       </c>
-      <c r="G28" s="46">
+      <c r="G28" s="38">
         <v>44043</v>
       </c>
       <c r="H28" s="13">
@@ -1889,7 +1482,7 @@
       <c r="F29" s="10">
         <v>4</v>
       </c>
-      <c r="G29" s="46">
+      <c r="G29" s="38">
         <v>44043</v>
       </c>
       <c r="H29" s="13">
@@ -1921,7 +1514,7 @@
       <c r="F30" s="10">
         <v>2</v>
       </c>
-      <c r="G30" s="46">
+      <c r="G30" s="38">
         <v>44043</v>
       </c>
       <c r="H30" s="13">
@@ -1953,7 +1546,7 @@
       <c r="F31" s="10">
         <v>4</v>
       </c>
-      <c r="G31" s="46">
+      <c r="G31" s="38">
         <v>44043</v>
       </c>
       <c r="H31" s="13">
@@ -1985,7 +1578,7 @@
       <c r="F32" s="10">
         <v>1</v>
       </c>
-      <c r="G32" s="46">
+      <c r="G32" s="38">
         <v>44043</v>
       </c>
       <c r="H32" s="13">
@@ -2017,7 +1610,7 @@
       <c r="F33" s="10">
         <v>2</v>
       </c>
-      <c r="G33" s="46">
+      <c r="G33" s="38">
         <v>44043</v>
       </c>
       <c r="H33" s="13">
@@ -2049,7 +1642,7 @@
       <c r="F34" s="10">
         <v>5</v>
       </c>
-      <c r="G34" s="46">
+      <c r="G34" s="38">
         <v>44043</v>
       </c>
       <c r="H34" s="13">
@@ -2081,7 +1674,7 @@
       <c r="F35" s="10">
         <v>3</v>
       </c>
-      <c r="G35" s="46">
+      <c r="G35" s="38">
         <v>44043</v>
       </c>
       <c r="H35" s="13">
@@ -2113,7 +1706,7 @@
       <c r="F36" s="10">
         <v>2</v>
       </c>
-      <c r="G36" s="46">
+      <c r="G36" s="38">
         <v>44043</v>
       </c>
       <c r="H36" s="13">
@@ -2145,7 +1738,7 @@
       <c r="F37" s="16">
         <v>1</v>
       </c>
-      <c r="G37" s="46">
+      <c r="G37" s="38">
         <v>44043</v>
       </c>
       <c r="H37" s="19">
@@ -2177,7 +1770,7 @@
       <c r="F38" s="16">
         <v>2</v>
       </c>
-      <c r="G38" s="46">
+      <c r="G38" s="38">
         <v>44043</v>
       </c>
       <c r="H38" s="19">
@@ -2209,7 +1802,7 @@
       <c r="F39" s="10">
         <v>1</v>
       </c>
-      <c r="G39" s="46">
+      <c r="G39" s="38">
         <v>44043</v>
       </c>
       <c r="H39" s="13">
@@ -2241,7 +1834,7 @@
       <c r="F40" s="10">
         <v>2</v>
       </c>
-      <c r="G40" s="46">
+      <c r="G40" s="38">
         <v>44043</v>
       </c>
       <c r="H40" s="13">
@@ -2273,7 +1866,7 @@
       <c r="F41" s="10">
         <v>4</v>
       </c>
-      <c r="G41" s="46">
+      <c r="G41" s="38">
         <v>44043</v>
       </c>
       <c r="H41" s="13">
@@ -2305,7 +1898,7 @@
       <c r="F42" s="10">
         <v>5</v>
       </c>
-      <c r="G42" s="46">
+      <c r="G42" s="38">
         <v>44043</v>
       </c>
       <c r="H42" s="13">
@@ -2337,7 +1930,7 @@
       <c r="F43" s="10">
         <v>3</v>
       </c>
-      <c r="G43" s="46">
+      <c r="G43" s="38">
         <v>44043</v>
       </c>
       <c r="H43" s="13">
@@ -2369,7 +1962,7 @@
       <c r="F44" s="16">
         <v>3</v>
       </c>
-      <c r="G44" s="46">
+      <c r="G44" s="38">
         <v>44043</v>
       </c>
       <c r="H44" s="19">
@@ -2401,7 +1994,7 @@
       <c r="F45" s="10">
         <v>5</v>
       </c>
-      <c r="G45" s="46">
+      <c r="G45" s="38">
         <v>44043</v>
       </c>
       <c r="H45" s="13">
@@ -2433,7 +2026,7 @@
       <c r="F46" s="16">
         <v>1</v>
       </c>
-      <c r="G46" s="46">
+      <c r="G46" s="38">
         <v>44043</v>
       </c>
       <c r="H46" s="19">
@@ -2465,7 +2058,7 @@
       <c r="F47" s="10">
         <v>4</v>
       </c>
-      <c r="G47" s="46">
+      <c r="G47" s="38">
         <v>44043</v>
       </c>
       <c r="H47" s="13">
@@ -2497,7 +2090,7 @@
       <c r="F48" s="10">
         <v>5</v>
       </c>
-      <c r="G48" s="46">
+      <c r="G48" s="38">
         <v>44043</v>
       </c>
       <c r="H48" s="13">
@@ -2529,7 +2122,7 @@
       <c r="F49" s="10">
         <v>5</v>
       </c>
-      <c r="G49" s="46">
+      <c r="G49" s="38">
         <v>44043</v>
       </c>
       <c r="H49" s="13">
@@ -2561,7 +2154,7 @@
       <c r="F50" s="16">
         <v>4</v>
       </c>
-      <c r="G50" s="46">
+      <c r="G50" s="38">
         <v>44043</v>
       </c>
       <c r="H50" s="19">
@@ -2593,7 +2186,7 @@
       <c r="F51" s="16">
         <v>1</v>
       </c>
-      <c r="G51" s="46">
+      <c r="G51" s="38">
         <v>44043</v>
       </c>
       <c r="H51" s="19">
@@ -2625,7 +2218,7 @@
       <c r="F52" s="16">
         <v>5</v>
       </c>
-      <c r="G52" s="46">
+      <c r="G52" s="38">
         <v>44043</v>
       </c>
       <c r="H52" s="19">
@@ -2657,7 +2250,7 @@
       <c r="F53" s="16">
         <v>2</v>
       </c>
-      <c r="G53" s="46">
+      <c r="G53" s="38">
         <v>44043</v>
       </c>
       <c r="H53" s="19">
@@ -2689,7 +2282,7 @@
       <c r="F54" s="10">
         <v>4</v>
       </c>
-      <c r="G54" s="46">
+      <c r="G54" s="38">
         <v>44043</v>
       </c>
       <c r="H54" s="13">
@@ -2721,7 +2314,7 @@
       <c r="F55" s="10">
         <v>5</v>
       </c>
-      <c r="G55" s="46">
+      <c r="G55" s="38">
         <v>44043</v>
       </c>
       <c r="H55" s="13">
@@ -2753,7 +2346,7 @@
       <c r="F56" s="16">
         <v>4</v>
       </c>
-      <c r="G56" s="46">
+      <c r="G56" s="38">
         <v>44043</v>
       </c>
       <c r="H56" s="19">
@@ -2785,7 +2378,7 @@
       <c r="F57" s="10">
         <v>2</v>
       </c>
-      <c r="G57" s="46">
+      <c r="G57" s="38">
         <v>44043</v>
       </c>
       <c r="H57" s="13">
@@ -2817,7 +2410,7 @@
       <c r="F58" s="10">
         <v>1</v>
       </c>
-      <c r="G58" s="46">
+      <c r="G58" s="38">
         <v>44043</v>
       </c>
       <c r="H58" s="13">
@@ -2849,7 +2442,7 @@
       <c r="F59" s="10">
         <v>1</v>
       </c>
-      <c r="G59" s="46">
+      <c r="G59" s="38">
         <v>44043</v>
       </c>
       <c r="H59" s="13">
@@ -2881,7 +2474,7 @@
       <c r="F60" s="10">
         <v>4</v>
       </c>
-      <c r="G60" s="46">
+      <c r="G60" s="38">
         <v>44043</v>
       </c>
       <c r="H60" s="13">
@@ -2913,7 +2506,7 @@
       <c r="F61" s="10">
         <v>1</v>
       </c>
-      <c r="G61" s="46">
+      <c r="G61" s="38">
         <v>44043</v>
       </c>
       <c r="H61" s="13">
@@ -2945,7 +2538,7 @@
       <c r="F62" s="10">
         <v>4</v>
       </c>
-      <c r="G62" s="46">
+      <c r="G62" s="38">
         <v>44043</v>
       </c>
       <c r="H62" s="13">
@@ -2977,7 +2570,7 @@
       <c r="F63" s="16">
         <v>2</v>
       </c>
-      <c r="G63" s="46">
+      <c r="G63" s="38">
         <v>44043</v>
       </c>
       <c r="H63" s="19">
@@ -3009,7 +2602,7 @@
       <c r="F64" s="16">
         <v>5</v>
       </c>
-      <c r="G64" s="46">
+      <c r="G64" s="38">
         <v>44043</v>
       </c>
       <c r="H64" s="19">
@@ -3041,7 +2634,7 @@
       <c r="F65" s="16">
         <v>2</v>
       </c>
-      <c r="G65" s="46">
+      <c r="G65" s="38">
         <v>44043</v>
       </c>
       <c r="H65" s="19">
@@ -3073,7 +2666,7 @@
       <c r="F66" s="10">
         <v>3</v>
       </c>
-      <c r="G66" s="46">
+      <c r="G66" s="38">
         <v>44043</v>
       </c>
       <c r="H66" s="13">
@@ -3105,7 +2698,7 @@
       <c r="F67" s="10">
         <v>1</v>
       </c>
-      <c r="G67" s="46">
+      <c r="G67" s="38">
         <v>44043</v>
       </c>
       <c r="H67" s="13">
@@ -3137,7 +2730,7 @@
       <c r="F68" s="10">
         <v>4</v>
       </c>
-      <c r="G68" s="46">
+      <c r="G68" s="38">
         <v>44043</v>
       </c>
       <c r="H68" s="13">
@@ -3169,7 +2762,7 @@
       <c r="F69" s="16">
         <v>5</v>
       </c>
-      <c r="G69" s="46">
+      <c r="G69" s="38">
         <v>44043</v>
       </c>
       <c r="H69" s="19">
@@ -3201,7 +2794,7 @@
       <c r="F70" s="16">
         <v>2</v>
       </c>
-      <c r="G70" s="46">
+      <c r="G70" s="38">
         <v>44043</v>
       </c>
       <c r="H70" s="19">
@@ -3233,7 +2826,7 @@
       <c r="F71" s="10">
         <v>3</v>
       </c>
-      <c r="G71" s="46">
+      <c r="G71" s="38">
         <v>44043</v>
       </c>
       <c r="H71" s="13">
@@ -3265,7 +2858,7 @@
       <c r="F72" s="16">
         <v>3</v>
       </c>
-      <c r="G72" s="46">
+      <c r="G72" s="38">
         <v>44043</v>
       </c>
       <c r="H72" s="19">
@@ -3297,7 +2890,7 @@
       <c r="F73" s="10">
         <v>4</v>
       </c>
-      <c r="G73" s="46">
+      <c r="G73" s="38">
         <v>44043</v>
       </c>
       <c r="H73" s="13">
@@ -3329,7 +2922,7 @@
       <c r="F74" s="10">
         <v>5</v>
       </c>
-      <c r="G74" s="46">
+      <c r="G74" s="38">
         <v>44043</v>
       </c>
       <c r="H74" s="13">
@@ -3361,7 +2954,7 @@
       <c r="F75" s="10">
         <v>5</v>
       </c>
-      <c r="G75" s="46">
+      <c r="G75" s="38">
         <v>44043</v>
       </c>
       <c r="H75" s="13">
@@ -3393,7 +2986,7 @@
       <c r="F76" s="10">
         <v>2</v>
       </c>
-      <c r="G76" s="46">
+      <c r="G76" s="38">
         <v>44043</v>
       </c>
       <c r="H76" s="13">
@@ -3425,7 +3018,7 @@
       <c r="F77" s="10">
         <v>1</v>
       </c>
-      <c r="G77" s="46">
+      <c r="G77" s="38">
         <v>44043</v>
       </c>
       <c r="H77" s="13">
@@ -3457,7 +3050,7 @@
       <c r="F78" s="10">
         <v>3</v>
       </c>
-      <c r="G78" s="46">
+      <c r="G78" s="38">
         <v>44043</v>
       </c>
       <c r="H78" s="13">
@@ -3489,7 +3082,7 @@
       <c r="F79" s="10">
         <v>2</v>
       </c>
-      <c r="G79" s="46">
+      <c r="G79" s="38">
         <v>44043</v>
       </c>
       <c r="H79" s="13">
@@ -3521,7 +3114,7 @@
       <c r="F80" s="10">
         <v>2</v>
       </c>
-      <c r="G80" s="46">
+      <c r="G80" s="38">
         <v>44043</v>
       </c>
       <c r="H80" s="13">
@@ -3553,7 +3146,7 @@
       <c r="F81" s="10">
         <v>3</v>
       </c>
-      <c r="G81" s="46">
+      <c r="G81" s="38">
         <v>44043</v>
       </c>
       <c r="H81" s="13">
@@ -3585,7 +3178,7 @@
       <c r="F82" s="10">
         <v>2</v>
       </c>
-      <c r="G82" s="46">
+      <c r="G82" s="38">
         <v>44043</v>
       </c>
       <c r="H82" s="13">
@@ -3617,7 +3210,7 @@
       <c r="F83" s="10">
         <v>3</v>
       </c>
-      <c r="G83" s="46">
+      <c r="G83" s="38">
         <v>44043</v>
       </c>
       <c r="H83" s="13">
@@ -3649,7 +3242,7 @@
       <c r="F84" s="10">
         <v>4</v>
       </c>
-      <c r="G84" s="46">
+      <c r="G84" s="38">
         <v>44043</v>
       </c>
       <c r="H84" s="13">
@@ -3681,7 +3274,7 @@
       <c r="F85" s="10">
         <v>3</v>
       </c>
-      <c r="G85" s="46">
+      <c r="G85" s="38">
         <v>44043</v>
       </c>
       <c r="H85" s="13">
@@ -3713,7 +3306,7 @@
       <c r="F86" s="10">
         <v>2</v>
       </c>
-      <c r="G86" s="46">
+      <c r="G86" s="38">
         <v>44043</v>
       </c>
       <c r="H86" s="13">
@@ -3745,7 +3338,7 @@
       <c r="F87" s="16">
         <v>4</v>
       </c>
-      <c r="G87" s="46">
+      <c r="G87" s="38">
         <v>44043</v>
       </c>
       <c r="H87" s="19">
@@ -3777,7 +3370,7 @@
       <c r="F88" s="10">
         <v>3</v>
       </c>
-      <c r="G88" s="46">
+      <c r="G88" s="38">
         <v>44043</v>
       </c>
       <c r="H88" s="13">
@@ -3809,7 +3402,7 @@
       <c r="F89" s="10">
         <v>1</v>
       </c>
-      <c r="G89" s="46">
+      <c r="G89" s="38">
         <v>44043</v>
       </c>
       <c r="H89" s="13">
@@ -3841,7 +3434,7 @@
       <c r="F90" s="10">
         <v>4</v>
       </c>
-      <c r="G90" s="46">
+      <c r="G90" s="38">
         <v>44043</v>
       </c>
       <c r="H90" s="13">
@@ -3873,7 +3466,7 @@
       <c r="F91" s="10">
         <v>3</v>
       </c>
-      <c r="G91" s="46">
+      <c r="G91" s="38">
         <v>44043</v>
       </c>
       <c r="H91" s="13">
@@ -3905,7 +3498,7 @@
       <c r="F92" s="10">
         <v>2</v>
       </c>
-      <c r="G92" s="46">
+      <c r="G92" s="38">
         <v>44043</v>
       </c>
       <c r="H92" s="13">
@@ -3937,7 +3530,7 @@
       <c r="F93" s="10">
         <v>4</v>
       </c>
-      <c r="G93" s="46">
+      <c r="G93" s="38">
         <v>44043</v>
       </c>
       <c r="H93" s="13">
@@ -3969,7 +3562,7 @@
       <c r="F94" s="16">
         <v>1</v>
       </c>
-      <c r="G94" s="46">
+      <c r="G94" s="38">
         <v>44043</v>
       </c>
       <c r="H94" s="19">
@@ -4001,7 +3594,7 @@
       <c r="F95" s="16">
         <v>4</v>
       </c>
-      <c r="G95" s="46">
+      <c r="G95" s="38">
         <v>44043</v>
       </c>
       <c r="H95" s="19">
@@ -4033,7 +3626,7 @@
       <c r="F96" s="16">
         <v>1</v>
       </c>
-      <c r="G96" s="46">
+      <c r="G96" s="38">
         <v>44043</v>
       </c>
       <c r="H96" s="19">
@@ -4065,7 +3658,7 @@
       <c r="F97" s="16">
         <v>2</v>
       </c>
-      <c r="G97" s="46">
+      <c r="G97" s="38">
         <v>44043</v>
       </c>
       <c r="H97" s="19">
@@ -4097,7 +3690,7 @@
       <c r="F98" s="10">
         <v>5</v>
       </c>
-      <c r="G98" s="46">
+      <c r="G98" s="38">
         <v>44043</v>
       </c>
       <c r="H98" s="13">
@@ -4129,7 +3722,7 @@
       <c r="F99" s="10">
         <v>2</v>
       </c>
-      <c r="G99" s="46">
+      <c r="G99" s="38">
         <v>44043</v>
       </c>
       <c r="H99" s="13">
@@ -4161,7 +3754,7 @@
       <c r="F100" s="10">
         <v>5</v>
       </c>
-      <c r="G100" s="46">
+      <c r="G100" s="38">
         <v>44043</v>
       </c>
       <c r="H100" s="13">
@@ -4193,7 +3786,7 @@
       <c r="F101" s="10">
         <v>1</v>
       </c>
-      <c r="G101" s="46">
+      <c r="G101" s="38">
         <v>44043</v>
       </c>
       <c r="H101" s="13">
@@ -4225,7 +3818,7 @@
       <c r="F102" s="16">
         <v>5</v>
       </c>
-      <c r="G102" s="46">
+      <c r="G102" s="38">
         <v>44043</v>
       </c>
       <c r="H102" s="19">
@@ -4257,7 +3850,7 @@
       <c r="F103" s="10">
         <v>3</v>
       </c>
-      <c r="G103" s="46">
+      <c r="G103" s="38">
         <v>44043</v>
       </c>
       <c r="H103" s="13">
@@ -4289,7 +3882,7 @@
       <c r="F104" s="16">
         <v>4</v>
       </c>
-      <c r="G104" s="46">
+      <c r="G104" s="38">
         <v>44043</v>
       </c>
       <c r="H104" s="19">
@@ -4321,7 +3914,7 @@
       <c r="F105" s="16">
         <v>4</v>
       </c>
-      <c r="G105" s="46">
+      <c r="G105" s="38">
         <v>44043</v>
       </c>
       <c r="H105" s="19">
@@ -4353,7 +3946,7 @@
       <c r="F106" s="10">
         <v>2</v>
       </c>
-      <c r="G106" s="46">
+      <c r="G106" s="38">
         <v>44043</v>
       </c>
       <c r="H106" s="13">
@@ -4385,7 +3978,7 @@
       <c r="F107" s="10">
         <v>5</v>
       </c>
-      <c r="G107" s="46">
+      <c r="G107" s="38">
         <v>44043</v>
       </c>
       <c r="H107" s="13">
@@ -4417,7 +4010,7 @@
       <c r="F108" s="10">
         <v>2</v>
       </c>
-      <c r="G108" s="46">
+      <c r="G108" s="38">
         <v>44043</v>
       </c>
       <c r="H108" s="13">
@@ -4449,7 +4042,7 @@
       <c r="F109" s="10">
         <v>2</v>
       </c>
-      <c r="G109" s="46">
+      <c r="G109" s="38">
         <v>44043</v>
       </c>
       <c r="H109" s="13">
@@ -4481,7 +4074,7 @@
       <c r="F110" s="16">
         <v>5</v>
       </c>
-      <c r="G110" s="46">
+      <c r="G110" s="38">
         <v>44043</v>
       </c>
       <c r="H110" s="19">
@@ -4513,7 +4106,7 @@
       <c r="F111" s="16">
         <v>1</v>
       </c>
-      <c r="G111" s="46">
+      <c r="G111" s="38">
         <v>44043</v>
       </c>
       <c r="H111" s="19">
@@ -4546,7 +4139,7 @@
       <c r="F112" s="16">
         <v>4</v>
       </c>
-      <c r="G112" s="46">
+      <c r="G112" s="38">
         <v>44043</v>
       </c>
       <c r="H112" s="19">
@@ -4578,7 +4171,7 @@
       <c r="F113" s="10">
         <v>2</v>
       </c>
-      <c r="G113" s="46">
+      <c r="G113" s="38">
         <v>44043</v>
       </c>
       <c r="H113" s="13">
@@ -4610,7 +4203,7 @@
       <c r="F114" s="16">
         <v>1</v>
       </c>
-      <c r="G114" s="46">
+      <c r="G114" s="38">
         <v>44043</v>
       </c>
       <c r="H114" s="19">
@@ -4642,7 +4235,7 @@
       <c r="F115" s="10">
         <v>1</v>
       </c>
-      <c r="G115" s="46">
+      <c r="G115" s="38">
         <v>44043</v>
       </c>
       <c r="H115" s="13">
@@ -4674,7 +4267,7 @@
       <c r="F116" s="10">
         <v>4</v>
       </c>
-      <c r="G116" s="46">
+      <c r="G116" s="38">
         <v>44043</v>
       </c>
       <c r="H116" s="13">
@@ -4706,7 +4299,7 @@
       <c r="F117" s="16">
         <v>5</v>
       </c>
-      <c r="G117" s="46">
+      <c r="G117" s="38">
         <v>44043</v>
       </c>
       <c r="H117" s="19">
@@ -4738,7 +4331,7 @@
       <c r="F118" s="16">
         <v>4</v>
       </c>
-      <c r="G118" s="46">
+      <c r="G118" s="38">
         <v>44043</v>
       </c>
       <c r="H118" s="19">
@@ -4770,7 +4363,7 @@
       <c r="F119" s="10">
         <v>1</v>
       </c>
-      <c r="G119" s="46">
+      <c r="G119" s="38">
         <v>44043</v>
       </c>
       <c r="H119" s="13">
@@ -4802,7 +4395,7 @@
       <c r="F120" s="16">
         <v>2</v>
       </c>
-      <c r="G120" s="46">
+      <c r="G120" s="38">
         <v>44043</v>
       </c>
       <c r="H120" s="19">
@@ -4834,7 +4427,7 @@
       <c r="F121" s="16">
         <v>2</v>
       </c>
-      <c r="G121" s="46">
+      <c r="G121" s="38">
         <v>44043</v>
       </c>
       <c r="H121" s="19">
@@ -4866,7 +4459,7 @@
       <c r="F122" s="16">
         <v>4</v>
       </c>
-      <c r="G122" s="46">
+      <c r="G122" s="38">
         <v>44043</v>
       </c>
       <c r="H122" s="19">
@@ -4898,7 +4491,7 @@
       <c r="F123" s="10">
         <v>3</v>
       </c>
-      <c r="G123" s="46">
+      <c r="G123" s="38">
         <v>44043</v>
       </c>
       <c r="H123" s="13">
@@ -4930,7 +4523,7 @@
       <c r="F124" s="16">
         <v>4</v>
       </c>
-      <c r="G124" s="46">
+      <c r="G124" s="38">
         <v>44043</v>
       </c>
       <c r="H124" s="19">
@@ -4962,7 +4555,7 @@
       <c r="F125" s="10">
         <v>5</v>
       </c>
-      <c r="G125" s="46">
+      <c r="G125" s="38">
         <v>44043</v>
       </c>
       <c r="H125" s="13">
@@ -4994,7 +4587,7 @@
       <c r="F126" s="10">
         <v>5</v>
       </c>
-      <c r="G126" s="46">
+      <c r="G126" s="38">
         <v>44043</v>
       </c>
       <c r="H126" s="13">
@@ -5026,7 +4619,7 @@
       <c r="F127" s="10">
         <v>3</v>
       </c>
-      <c r="G127" s="46">
+      <c r="G127" s="38">
         <v>44043</v>
       </c>
       <c r="H127" s="13">
@@ -5058,7 +4651,7 @@
       <c r="F128" s="10">
         <v>5</v>
       </c>
-      <c r="G128" s="46">
+      <c r="G128" s="38">
         <v>44043</v>
       </c>
       <c r="H128" s="13">
@@ -5090,7 +4683,7 @@
       <c r="F129" s="10">
         <v>3</v>
       </c>
-      <c r="G129" s="46">
+      <c r="G129" s="38">
         <v>44043</v>
       </c>
       <c r="H129" s="13">
@@ -5122,7 +4715,7 @@
       <c r="F130" s="10">
         <v>1</v>
       </c>
-      <c r="G130" s="46">
+      <c r="G130" s="38">
         <v>44043</v>
       </c>
       <c r="H130" s="13">
@@ -5154,7 +4747,7 @@
       <c r="F131" s="10">
         <v>3</v>
       </c>
-      <c r="G131" s="46">
+      <c r="G131" s="38">
         <v>44043</v>
       </c>
       <c r="H131" s="13">
@@ -5186,7 +4779,7 @@
       <c r="F132" s="10">
         <v>3</v>
       </c>
-      <c r="G132" s="46">
+      <c r="G132" s="38">
         <v>44043</v>
       </c>
       <c r="H132" s="13">
@@ -5218,7 +4811,7 @@
       <c r="F133" s="16">
         <v>3</v>
       </c>
-      <c r="G133" s="46">
+      <c r="G133" s="38">
         <v>44043</v>
       </c>
       <c r="H133" s="19">
@@ -5251,7 +4844,7 @@
       <c r="F134" s="16">
         <v>3</v>
       </c>
-      <c r="G134" s="46">
+      <c r="G134" s="38">
         <v>44043</v>
       </c>
       <c r="H134" s="19">
@@ -5283,7 +4876,7 @@
       <c r="F135" s="16">
         <v>2</v>
       </c>
-      <c r="G135" s="46">
+      <c r="G135" s="38">
         <v>44043</v>
       </c>
       <c r="H135" s="19">
@@ -5315,7 +4908,7 @@
       <c r="F136" s="16">
         <v>2</v>
       </c>
-      <c r="G136" s="46">
+      <c r="G136" s="38">
         <v>44043</v>
       </c>
       <c r="H136" s="19">
@@ -5347,7 +4940,7 @@
       <c r="F137" s="10">
         <v>5</v>
       </c>
-      <c r="G137" s="46">
+      <c r="G137" s="38">
         <v>44043</v>
       </c>
       <c r="H137" s="13">
@@ -5379,7 +4972,7 @@
       <c r="F138" s="16">
         <v>5</v>
       </c>
-      <c r="G138" s="46">
+      <c r="G138" s="38">
         <v>44043</v>
       </c>
       <c r="H138" s="19">
@@ -5411,7 +5004,7 @@
       <c r="F139" s="10">
         <v>1</v>
       </c>
-      <c r="G139" s="46">
+      <c r="G139" s="38">
         <v>44043</v>
       </c>
       <c r="H139" s="13">
@@ -5443,7 +5036,7 @@
       <c r="F140" s="16">
         <v>1</v>
       </c>
-      <c r="G140" s="46">
+      <c r="G140" s="38">
         <v>44043</v>
       </c>
       <c r="H140" s="19">
@@ -5476,7 +5069,7 @@
       <c r="F141" s="10">
         <v>1</v>
       </c>
-      <c r="G141" s="46">
+      <c r="G141" s="38">
         <v>44043</v>
       </c>
       <c r="H141" s="13">
@@ -5508,7 +5101,7 @@
       <c r="F142" s="10">
         <v>1</v>
       </c>
-      <c r="G142" s="46">
+      <c r="G142" s="38">
         <v>44043</v>
       </c>
       <c r="H142" s="13">
@@ -5540,7 +5133,7 @@
       <c r="F143" s="10">
         <v>5</v>
       </c>
-      <c r="G143" s="46">
+      <c r="G143" s="38">
         <v>44043</v>
       </c>
       <c r="H143" s="13">
@@ -5572,7 +5165,7 @@
       <c r="F144" s="10">
         <v>1</v>
       </c>
-      <c r="G144" s="46">
+      <c r="G144" s="38">
         <v>44043</v>
       </c>
       <c r="H144" s="13">
@@ -5604,7 +5197,7 @@
       <c r="F145" s="10">
         <v>3</v>
       </c>
-      <c r="G145" s="46">
+      <c r="G145" s="38">
         <v>44043</v>
       </c>
       <c r="H145" s="13">
@@ -5636,7 +5229,7 @@
       <c r="F146" s="10">
         <v>1</v>
       </c>
-      <c r="G146" s="46">
+      <c r="G146" s="38">
         <v>44043</v>
       </c>
       <c r="H146" s="13">
@@ -5668,7 +5261,7 @@
       <c r="F147" s="10">
         <v>2</v>
       </c>
-      <c r="G147" s="46">
+      <c r="G147" s="38">
         <v>44043</v>
       </c>
       <c r="H147" s="13">
@@ -5700,7 +5293,7 @@
       <c r="F148" s="10">
         <v>3</v>
       </c>
-      <c r="G148" s="46">
+      <c r="G148" s="38">
         <v>44043</v>
       </c>
       <c r="H148" s="13">
@@ -5732,7 +5325,7 @@
       <c r="F149" s="10">
         <v>1</v>
       </c>
-      <c r="G149" s="46">
+      <c r="G149" s="38">
         <v>44043</v>
       </c>
       <c r="H149" s="13">
@@ -5764,7 +5357,7 @@
       <c r="F150" s="10">
         <v>1</v>
       </c>
-      <c r="G150" s="46">
+      <c r="G150" s="38">
         <v>44043</v>
       </c>
       <c r="H150" s="13">
@@ -5796,7 +5389,7 @@
       <c r="F151" s="10">
         <v>5</v>
       </c>
-      <c r="G151" s="46">
+      <c r="G151" s="38">
         <v>44043</v>
       </c>
       <c r="H151" s="13">
@@ -5828,7 +5421,7 @@
       <c r="F152" s="16">
         <v>4</v>
       </c>
-      <c r="G152" s="46">
+      <c r="G152" s="38">
         <v>44043</v>
       </c>
       <c r="H152" s="19">
@@ -5860,7 +5453,7 @@
       <c r="F153" s="16">
         <v>4</v>
       </c>
-      <c r="G153" s="46">
+      <c r="G153" s="38">
         <v>44043</v>
       </c>
       <c r="H153" s="19">
@@ -5892,7 +5485,7 @@
       <c r="F154" s="16">
         <v>1</v>
       </c>
-      <c r="G154" s="46">
+      <c r="G154" s="38">
         <v>44043</v>
       </c>
       <c r="H154" s="19">
@@ -5924,7 +5517,7 @@
       <c r="F155" s="16">
         <v>1</v>
       </c>
-      <c r="G155" s="46">
+      <c r="G155" s="38">
         <v>44043</v>
       </c>
       <c r="H155" s="19">
@@ -5956,7 +5549,7 @@
       <c r="F156" s="16">
         <v>2</v>
       </c>
-      <c r="G156" s="46">
+      <c r="G156" s="38">
         <v>44043</v>
       </c>
       <c r="H156" s="19">
@@ -5988,7 +5581,7 @@
       <c r="F157" s="16">
         <v>4</v>
       </c>
-      <c r="G157" s="46">
+      <c r="G157" s="38">
         <v>44043</v>
       </c>
       <c r="H157" s="19">
@@ -6020,7 +5613,7 @@
       <c r="F158" s="16">
         <v>1</v>
       </c>
-      <c r="G158" s="46">
+      <c r="G158" s="38">
         <v>44043</v>
       </c>
       <c r="H158" s="19">
@@ -6052,7 +5645,7 @@
       <c r="F159" s="16">
         <v>1</v>
       </c>
-      <c r="G159" s="46">
+      <c r="G159" s="38">
         <v>44043</v>
       </c>
       <c r="H159" s="19">
@@ -6085,7 +5678,7 @@
       <c r="F160" s="22">
         <v>5</v>
       </c>
-      <c r="G160" s="46">
+      <c r="G160" s="38">
         <v>44043</v>
       </c>
       <c r="H160" s="19">
@@ -6117,7 +5710,7 @@
       <c r="F161" s="7">
         <v>4</v>
       </c>
-      <c r="G161" s="46">
+      <c r="G161" s="38">
         <v>44043</v>
       </c>
       <c r="H161" s="13">
@@ -6149,7 +5742,7 @@
       <c r="F162" s="22">
         <v>5</v>
       </c>
-      <c r="G162" s="46">
+      <c r="G162" s="38">
         <v>44043</v>
       </c>
       <c r="H162" s="19">
@@ -6181,7 +5774,7 @@
       <c r="F163" s="22">
         <v>4</v>
       </c>
-      <c r="G163" s="46">
+      <c r="G163" s="38">
         <v>44043</v>
       </c>
       <c r="H163" s="19">
@@ -6213,7 +5806,7 @@
       <c r="F164" s="22">
         <v>5</v>
       </c>
-      <c r="G164" s="46">
+      <c r="G164" s="38">
         <v>44043</v>
       </c>
       <c r="H164" s="19">
@@ -6245,7 +5838,7 @@
       <c r="F165" s="22">
         <v>3</v>
       </c>
-      <c r="G165" s="46">
+      <c r="G165" s="38">
         <v>44043</v>
       </c>
       <c r="H165" s="19">
@@ -6277,7 +5870,7 @@
       <c r="F166" s="22">
         <v>2</v>
       </c>
-      <c r="G166" s="46">
+      <c r="G166" s="38">
         <v>44043</v>
       </c>
       <c r="H166" s="19">
@@ -6310,7 +5903,7 @@
       <c r="F167" s="7">
         <v>3</v>
       </c>
-      <c r="G167" s="46">
+      <c r="G167" s="38">
         <v>44043</v>
       </c>
       <c r="H167" s="13">
@@ -6342,7 +5935,7 @@
       <c r="F168" s="22">
         <v>2</v>
       </c>
-      <c r="G168" s="46">
+      <c r="G168" s="38">
         <v>44043</v>
       </c>
       <c r="H168" s="19">
@@ -6374,7 +5967,7 @@
       <c r="F169" s="22">
         <v>4</v>
       </c>
-      <c r="G169" s="46">
+      <c r="G169" s="38">
         <v>44043</v>
       </c>
       <c r="H169" s="19">
@@ -6406,7 +5999,7 @@
       <c r="F170" s="7">
         <v>1</v>
       </c>
-      <c r="G170" s="46">
+      <c r="G170" s="38">
         <v>44043</v>
       </c>
       <c r="H170" s="13">
@@ -6438,7 +6031,7 @@
       <c r="F171" s="7">
         <v>3</v>
       </c>
-      <c r="G171" s="46">
+      <c r="G171" s="38">
         <v>44043</v>
       </c>
       <c r="H171" s="13">
@@ -6470,7 +6063,7 @@
       <c r="F172" s="7">
         <v>2</v>
       </c>
-      <c r="G172" s="46">
+      <c r="G172" s="38">
         <v>44043</v>
       </c>
       <c r="H172" s="13">
@@ -6502,7 +6095,7 @@
       <c r="F173" s="22">
         <v>3</v>
       </c>
-      <c r="G173" s="46">
+      <c r="G173" s="38">
         <v>44043</v>
       </c>
       <c r="H173" s="19">
@@ -6534,7 +6127,7 @@
       <c r="F174" s="7">
         <v>2</v>
       </c>
-      <c r="G174" s="46">
+      <c r="G174" s="38">
         <v>44043</v>
       </c>
       <c r="H174" s="13">
@@ -6566,7 +6159,7 @@
       <c r="F175" s="7">
         <v>5</v>
       </c>
-      <c r="G175" s="46">
+      <c r="G175" s="38">
         <v>44043</v>
       </c>
       <c r="H175" s="13">
@@ -6598,7 +6191,7 @@
       <c r="F176" s="7">
         <v>3</v>
       </c>
-      <c r="G176" s="46">
+      <c r="G176" s="38">
         <v>44043</v>
       </c>
       <c r="H176" s="13">
@@ -6630,7 +6223,7 @@
       <c r="F177" s="22">
         <v>3</v>
       </c>
-      <c r="G177" s="46">
+      <c r="G177" s="38">
         <v>44043</v>
       </c>
       <c r="H177" s="19">
@@ -6662,7 +6255,7 @@
       <c r="F178" s="22">
         <v>1</v>
       </c>
-      <c r="G178" s="46">
+      <c r="G178" s="38">
         <v>44043</v>
       </c>
       <c r="H178" s="19">
@@ -6695,7 +6288,7 @@
       <c r="F179" s="22">
         <v>4</v>
       </c>
-      <c r="G179" s="46">
+      <c r="G179" s="38">
         <v>44043</v>
       </c>
       <c r="H179" s="19">
@@ -6728,7 +6321,7 @@
       <c r="F180" s="22">
         <v>2</v>
       </c>
-      <c r="G180" s="46">
+      <c r="G180" s="38">
         <v>44043</v>
       </c>
       <c r="H180" s="19">
@@ -6761,7 +6354,7 @@
       <c r="F181" s="22">
         <v>5</v>
       </c>
-      <c r="G181" s="46">
+      <c r="G181" s="38">
         <v>44043</v>
       </c>
       <c r="H181" s="19">
@@ -6793,7 +6386,7 @@
       <c r="F182" s="7">
         <v>5</v>
       </c>
-      <c r="G182" s="46">
+      <c r="G182" s="38">
         <v>44043</v>
       </c>
       <c r="H182" s="13">
@@ -6825,7 +6418,7 @@
       <c r="F183" s="7">
         <v>4</v>
       </c>
-      <c r="G183" s="46">
+      <c r="G183" s="38">
         <v>44043</v>
       </c>
       <c r="H183" s="13">
@@ -6857,7 +6450,7 @@
       <c r="F184" s="7">
         <v>2</v>
       </c>
-      <c r="G184" s="46">
+      <c r="G184" s="38">
         <v>44043</v>
       </c>
       <c r="H184" s="13">
@@ -6889,7 +6482,7 @@
       <c r="F185" s="7">
         <v>1</v>
       </c>
-      <c r="G185" s="46">
+      <c r="G185" s="38">
         <v>44043</v>
       </c>
       <c r="H185" s="13">
@@ -6921,7 +6514,7 @@
       <c r="F186" s="22">
         <v>1</v>
       </c>
-      <c r="G186" s="46">
+      <c r="G186" s="38">
         <v>44043</v>
       </c>
       <c r="H186" s="19">
@@ -6953,7 +6546,7 @@
       <c r="F187" s="22">
         <v>3</v>
       </c>
-      <c r="G187" s="46">
+      <c r="G187" s="38">
         <v>44043</v>
       </c>
       <c r="H187" s="19">
@@ -6985,7 +6578,7 @@
       <c r="F188" s="7">
         <v>5</v>
       </c>
-      <c r="G188" s="46">
+      <c r="G188" s="38">
         <v>44043</v>
       </c>
       <c r="H188" s="13">
@@ -7017,7 +6610,7 @@
       <c r="F189" s="7">
         <v>3</v>
       </c>
-      <c r="G189" s="46">
+      <c r="G189" s="38">
         <v>44043</v>
       </c>
       <c r="H189" s="13">
@@ -7049,7 +6642,7 @@
       <c r="F190" s="22">
         <v>3</v>
       </c>
-      <c r="G190" s="46">
+      <c r="G190" s="38">
         <v>44043</v>
       </c>
       <c r="H190" s="19">
@@ -7081,7 +6674,7 @@
       <c r="F191" s="22">
         <v>5</v>
       </c>
-      <c r="G191" s="46">
+      <c r="G191" s="38">
         <v>44043</v>
       </c>
       <c r="H191" s="19">
@@ -7113,7 +6706,7 @@
       <c r="F192" s="22">
         <v>2</v>
       </c>
-      <c r="G192" s="46">
+      <c r="G192" s="38">
         <v>44043</v>
       </c>
       <c r="H192" s="19">
@@ -7145,7 +6738,7 @@
       <c r="F193" s="7">
         <v>2</v>
       </c>
-      <c r="G193" s="46">
+      <c r="G193" s="38">
         <v>44043</v>
       </c>
       <c r="H193" s="13">
@@ -7177,7 +6770,7 @@
       <c r="F194" s="7">
         <v>3</v>
       </c>
-      <c r="G194" s="46">
+      <c r="G194" s="38">
         <v>44043</v>
       </c>
       <c r="H194" s="13">
@@ -7209,7 +6802,7 @@
       <c r="F195" s="22">
         <v>3</v>
       </c>
-      <c r="G195" s="46">
+      <c r="G195" s="38">
         <v>44043</v>
       </c>
       <c r="H195" s="19">
@@ -7241,7 +6834,7 @@
       <c r="F196" s="22">
         <v>4</v>
       </c>
-      <c r="G196" s="46">
+      <c r="G196" s="38">
         <v>44043</v>
       </c>
       <c r="H196" s="19">
@@ -7273,7 +6866,7 @@
       <c r="F197" s="7">
         <v>5</v>
       </c>
-      <c r="G197" s="46">
+      <c r="G197" s="38">
         <v>44043</v>
       </c>
       <c r="H197" s="13">
@@ -7305,7 +6898,7 @@
       <c r="F198" s="22">
         <v>1</v>
       </c>
-      <c r="G198" s="46">
+      <c r="G198" s="38">
         <v>44043</v>
       </c>
       <c r="H198" s="19">
@@ -7337,7 +6930,7 @@
       <c r="F199" s="7">
         <v>3</v>
       </c>
-      <c r="G199" s="46">
+      <c r="G199" s="38">
         <v>44043</v>
       </c>
       <c r="H199" s="13">
@@ -7369,7 +6962,7 @@
       <c r="F200" s="7">
         <v>5</v>
       </c>
-      <c r="G200" s="46">
+      <c r="G200" s="38">
         <v>44043</v>
       </c>
       <c r="H200" s="13">
@@ -7401,7 +6994,7 @@
       <c r="F201" s="7">
         <v>5</v>
       </c>
-      <c r="G201" s="46">
+      <c r="G201" s="38">
         <v>44043</v>
       </c>
       <c r="H201" s="13">
@@ -7433,7 +7026,7 @@
       <c r="F202" s="22">
         <v>3</v>
       </c>
-      <c r="G202" s="46">
+      <c r="G202" s="38">
         <v>44043</v>
       </c>
       <c r="H202" s="19">
@@ -7465,7 +7058,7 @@
       <c r="F203" s="7">
         <v>3</v>
       </c>
-      <c r="G203" s="46">
+      <c r="G203" s="38">
         <v>44043</v>
       </c>
       <c r="H203" s="13">
@@ -7497,7 +7090,7 @@
       <c r="F204" s="7">
         <v>5</v>
       </c>
-      <c r="G204" s="46">
+      <c r="G204" s="38">
         <v>44043</v>
       </c>
       <c r="H204" s="13">
@@ -7529,7 +7122,7 @@
       <c r="F205" s="22">
         <v>5</v>
       </c>
-      <c r="G205" s="46">
+      <c r="G205" s="38">
         <v>44043</v>
       </c>
       <c r="H205" s="19">
@@ -7561,7 +7154,7 @@
       <c r="F206" s="22">
         <v>5</v>
       </c>
-      <c r="G206" s="46">
+      <c r="G206" s="38">
         <v>44043</v>
       </c>
       <c r="H206" s="19">
@@ -7593,7 +7186,7 @@
       <c r="F207" s="7">
         <v>4</v>
       </c>
-      <c r="G207" s="46">
+      <c r="G207" s="38">
         <v>44043</v>
       </c>
       <c r="H207" s="13">
@@ -7625,7 +7218,7 @@
       <c r="F208" s="7">
         <v>3</v>
       </c>
-      <c r="G208" s="46">
+      <c r="G208" s="38">
         <v>44043</v>
       </c>
       <c r="H208" s="13">
@@ -7657,7 +7250,7 @@
       <c r="F209" s="7">
         <v>1</v>
       </c>
-      <c r="G209" s="46">
+      <c r="G209" s="38">
         <v>44043</v>
       </c>
       <c r="H209" s="13">
@@ -7689,7 +7282,7 @@
       <c r="F210" s="7">
         <v>2</v>
       </c>
-      <c r="G210" s="46">
+      <c r="G210" s="38">
         <v>44043</v>
       </c>
       <c r="H210" s="13">
@@ -7721,7 +7314,7 @@
       <c r="F211" s="7">
         <v>1</v>
       </c>
-      <c r="G211" s="46">
+      <c r="G211" s="38">
         <v>44043</v>
       </c>
       <c r="H211" s="13">
@@ -7753,7 +7346,7 @@
       <c r="F212" s="7">
         <v>2</v>
       </c>
-      <c r="G212" s="46">
+      <c r="G212" s="38">
         <v>44043</v>
       </c>
       <c r="H212" s="13">
@@ -7785,7 +7378,7 @@
       <c r="F213" s="7">
         <v>3</v>
       </c>
-      <c r="G213" s="46">
+      <c r="G213" s="38">
         <v>44043</v>
       </c>
       <c r="H213" s="13">
@@ -7817,7 +7410,7 @@
       <c r="F214" s="22">
         <v>3</v>
       </c>
-      <c r="G214" s="46">
+      <c r="G214" s="38">
         <v>44043</v>
       </c>
       <c r="H214" s="19">
@@ -7849,7 +7442,7 @@
       <c r="F215" s="22">
         <v>4</v>
       </c>
-      <c r="G215" s="46">
+      <c r="G215" s="38">
         <v>44043</v>
       </c>
       <c r="H215" s="19">
@@ -7881,7 +7474,7 @@
       <c r="F216" s="22">
         <v>2</v>
       </c>
-      <c r="G216" s="46">
+      <c r="G216" s="38">
         <v>44043</v>
       </c>
       <c r="H216" s="19">
@@ -7914,7 +7507,7 @@
       <c r="F217" s="7">
         <v>3</v>
       </c>
-      <c r="G217" s="46">
+      <c r="G217" s="38">
         <v>44043</v>
       </c>
       <c r="H217" s="13">
@@ -7947,7 +7540,7 @@
       <c r="F218" s="22">
         <v>1</v>
       </c>
-      <c r="G218" s="46">
+      <c r="G218" s="38">
         <v>44043</v>
       </c>
       <c r="H218" s="19">
@@ -7979,7 +7572,7 @@
       <c r="F219" s="7">
         <v>1</v>
       </c>
-      <c r="G219" s="46">
+      <c r="G219" s="38">
         <v>44043</v>
       </c>
       <c r="H219" s="13">
@@ -8011,7 +7604,7 @@
       <c r="F220" s="22">
         <v>1</v>
       </c>
-      <c r="G220" s="46">
+      <c r="G220" s="38">
         <v>44043</v>
       </c>
       <c r="H220" s="19">
@@ -8043,7 +7636,7 @@
       <c r="F221" s="7">
         <v>5</v>
       </c>
-      <c r="G221" s="46">
+      <c r="G221" s="38">
         <v>44043</v>
       </c>
       <c r="H221" s="13">
@@ -8075,7 +7668,7 @@
       <c r="F222" s="7">
         <v>3</v>
       </c>
-      <c r="G222" s="46">
+      <c r="G222" s="38">
         <v>44043</v>
       </c>
       <c r="H222" s="13">
@@ -8107,7 +7700,7 @@
       <c r="F223" s="7">
         <v>3</v>
       </c>
-      <c r="G223" s="46">
+      <c r="G223" s="38">
         <v>44043</v>
       </c>
       <c r="H223" s="13">
@@ -8139,7 +7732,7 @@
       <c r="F224" s="7">
         <v>1</v>
       </c>
-      <c r="G224" s="46">
+      <c r="G224" s="38">
         <v>44043</v>
       </c>
       <c r="H224" s="13">
@@ -8171,7 +7764,7 @@
       <c r="F225" s="22">
         <v>4</v>
       </c>
-      <c r="G225" s="46">
+      <c r="G225" s="38">
         <v>44043</v>
       </c>
       <c r="H225" s="19">
@@ -8203,7 +7796,7 @@
       <c r="F226" s="7">
         <v>5</v>
       </c>
-      <c r="G226" s="46">
+      <c r="G226" s="38">
         <v>44043</v>
       </c>
       <c r="H226" s="13">
@@ -8235,7 +7828,7 @@
       <c r="F227" s="22">
         <v>3</v>
       </c>
-      <c r="G227" s="46">
+      <c r="G227" s="38">
         <v>44043</v>
       </c>
       <c r="H227" s="19">
@@ -8267,7 +7860,7 @@
       <c r="F228" s="22">
         <v>4</v>
       </c>
-      <c r="G228" s="46">
+      <c r="G228" s="38">
         <v>44043</v>
       </c>
       <c r="H228" s="19">
@@ -8300,7 +7893,7 @@
       <c r="F229" s="7">
         <v>4</v>
       </c>
-      <c r="G229" s="46">
+      <c r="G229" s="38">
         <v>44043</v>
       </c>
       <c r="H229" s="13">
@@ -8332,7 +7925,7 @@
       <c r="F230" s="7">
         <v>2</v>
       </c>
-      <c r="G230" s="46">
+      <c r="G230" s="38">
         <v>44043</v>
       </c>
       <c r="H230" s="13">
@@ -8364,7 +7957,7 @@
       <c r="F231" s="7">
         <v>4</v>
       </c>
-      <c r="G231" s="46">
+      <c r="G231" s="38">
         <v>44043</v>
       </c>
       <c r="H231" s="13">
@@ -8396,7 +7989,7 @@
       <c r="F232" s="7">
         <v>4</v>
       </c>
-      <c r="G232" s="46">
+      <c r="G232" s="38">
         <v>44043</v>
       </c>
       <c r="H232" s="13">
@@ -8428,7 +8021,7 @@
       <c r="F233" s="7">
         <v>5</v>
       </c>
-      <c r="G233" s="46">
+      <c r="G233" s="38">
         <v>44043</v>
       </c>
       <c r="H233" s="13">
@@ -8460,7 +8053,7 @@
       <c r="F234" s="7">
         <v>3</v>
       </c>
-      <c r="G234" s="46">
+      <c r="G234" s="38">
         <v>44043</v>
       </c>
       <c r="H234" s="13">
@@ -8492,7 +8085,7 @@
       <c r="F235" s="22">
         <v>3</v>
       </c>
-      <c r="G235" s="46">
+      <c r="G235" s="38">
         <v>44043</v>
       </c>
       <c r="H235" s="19">
@@ -8524,7 +8117,7 @@
       <c r="F236" s="22">
         <v>4</v>
       </c>
-      <c r="G236" s="46">
+      <c r="G236" s="38">
         <v>44043</v>
       </c>
       <c r="H236" s="19">
@@ -8556,7 +8149,7 @@
       <c r="F237" s="22">
         <v>4</v>
       </c>
-      <c r="G237" s="46">
+      <c r="G237" s="38">
         <v>44043</v>
       </c>
       <c r="H237" s="19">
@@ -8588,7 +8181,7 @@
       <c r="F238" s="7">
         <v>3</v>
       </c>
-      <c r="G238" s="46">
+      <c r="G238" s="38">
         <v>44043</v>
       </c>
       <c r="H238" s="13">
@@ -8620,7 +8213,7 @@
       <c r="F239" s="22">
         <v>3</v>
       </c>
-      <c r="G239" s="46">
+      <c r="G239" s="38">
         <v>44043</v>
       </c>
       <c r="H239" s="19">
@@ -8652,7 +8245,7 @@
       <c r="F240" s="22">
         <v>4</v>
       </c>
-      <c r="G240" s="46">
+      <c r="G240" s="38">
         <v>44043</v>
       </c>
       <c r="H240" s="19">
@@ -8685,7 +8278,7 @@
       <c r="F241" s="7">
         <v>5</v>
       </c>
-      <c r="G241" s="46">
+      <c r="G241" s="38">
         <v>44043</v>
       </c>
       <c r="H241" s="13">
@@ -8717,7 +8310,7 @@
       <c r="F242" s="22">
         <v>5</v>
       </c>
-      <c r="G242" s="46">
+      <c r="G242" s="38">
         <v>44043</v>
       </c>
       <c r="H242" s="19">
@@ -8749,7 +8342,7 @@
       <c r="F243" s="7">
         <v>2</v>
       </c>
-      <c r="G243" s="46">
+      <c r="G243" s="38">
         <v>44043</v>
       </c>
       <c r="H243" s="13">
@@ -8781,7 +8374,7 @@
       <c r="F244" s="7">
         <v>1</v>
       </c>
-      <c r="G244" s="46">
+      <c r="G244" s="38">
         <v>44043</v>
       </c>
       <c r="H244" s="13">
@@ -8813,7 +8406,7 @@
       <c r="F245" s="22">
         <v>5</v>
       </c>
-      <c r="G245" s="46">
+      <c r="G245" s="38">
         <v>44043</v>
       </c>
       <c r="H245" s="19">
@@ -8845,7 +8438,7 @@
       <c r="F246" s="22">
         <v>2</v>
       </c>
-      <c r="G246" s="46">
+      <c r="G246" s="38">
         <v>44043</v>
       </c>
       <c r="H246" s="19">
@@ -8877,7 +8470,7 @@
       <c r="F247" s="22">
         <v>1</v>
       </c>
-      <c r="G247" s="46">
+      <c r="G247" s="38">
         <v>44043</v>
       </c>
       <c r="H247" s="19">
@@ -8909,7 +8502,7 @@
       <c r="F248" s="7">
         <v>3</v>
       </c>
-      <c r="G248" s="46">
+      <c r="G248" s="38">
         <v>44043</v>
       </c>
       <c r="H248" s="13">
@@ -8941,7 +8534,7 @@
       <c r="F249" s="7">
         <v>1</v>
       </c>
-      <c r="G249" s="46">
+      <c r="G249" s="38">
         <v>44043</v>
       </c>
       <c r="H249" s="13">
@@ -8973,7 +8566,7 @@
       <c r="F250" s="22">
         <v>2</v>
       </c>
-      <c r="G250" s="46">
+      <c r="G250" s="38">
         <v>44043</v>
       </c>
       <c r="H250" s="19">
@@ -9005,7 +8598,7 @@
       <c r="F251" s="7">
         <v>1</v>
       </c>
-      <c r="G251" s="46">
+      <c r="G251" s="38">
         <v>44043</v>
       </c>
       <c r="H251" s="13">
@@ -9037,7 +8630,7 @@
       <c r="F252" s="7">
         <v>5</v>
       </c>
-      <c r="G252" s="46">
+      <c r="G252" s="38">
         <v>44043</v>
       </c>
       <c r="H252" s="13">
@@ -9069,7 +8662,7 @@
       <c r="F253" s="16">
         <v>1</v>
       </c>
-      <c r="G253" s="46">
+      <c r="G253" s="38">
         <v>44043</v>
       </c>
       <c r="H253" s="19">
@@ -9101,7 +8694,7 @@
       <c r="F254" s="10">
         <v>2</v>
       </c>
-      <c r="G254" s="46">
+      <c r="G254" s="38">
         <v>44043</v>
       </c>
       <c r="H254" s="13">
@@ -9133,7 +8726,7 @@
       <c r="F255" s="10">
         <v>5</v>
       </c>
-      <c r="G255" s="46">
+      <c r="G255" s="38">
         <v>44043</v>
       </c>
       <c r="H255" s="13">
@@ -9165,7 +8758,7 @@
       <c r="F256" s="10">
         <v>4</v>
       </c>
-      <c r="G256" s="46">
+      <c r="G256" s="38">
         <v>44043</v>
       </c>
       <c r="H256" s="13">
@@ -9197,7 +8790,7 @@
       <c r="F257" s="16">
         <v>3</v>
       </c>
-      <c r="G257" s="46">
+      <c r="G257" s="38">
         <v>44043</v>
       </c>
       <c r="H257" s="19">
@@ -9229,7 +8822,7 @@
       <c r="F258" s="10">
         <v>3</v>
       </c>
-      <c r="G258" s="46">
+      <c r="G258" s="38">
         <v>44043</v>
       </c>
       <c r="H258" s="13">
@@ -9261,7 +8854,7 @@
       <c r="F259" s="16">
         <v>1</v>
       </c>
-      <c r="G259" s="46">
+      <c r="G259" s="38">
         <v>44043</v>
       </c>
       <c r="H259" s="19">
@@ -9293,7 +8886,7 @@
       <c r="F260" s="10">
         <v>4</v>
       </c>
-      <c r="G260" s="46">
+      <c r="G260" s="38">
         <v>44043</v>
       </c>
       <c r="H260" s="13">
@@ -9325,7 +8918,7 @@
       <c r="F261" s="16">
         <v>4</v>
       </c>
-      <c r="G261" s="46">
+      <c r="G261" s="38">
         <v>44043</v>
       </c>
       <c r="H261" s="19">
@@ -9357,7 +8950,7 @@
       <c r="F262" s="10">
         <v>3</v>
       </c>
-      <c r="G262" s="46">
+      <c r="G262" s="38">
         <v>44043</v>
       </c>
       <c r="H262" s="13">
@@ -9389,7 +8982,7 @@
       <c r="F263" s="10">
         <v>1</v>
       </c>
-      <c r="G263" s="46">
+      <c r="G263" s="38">
         <v>44043</v>
       </c>
       <c r="H263" s="13">
@@ -9421,7 +9014,7 @@
       <c r="F264" s="16">
         <v>1</v>
       </c>
-      <c r="G264" s="46">
+      <c r="G264" s="38">
         <v>44043</v>
       </c>
       <c r="H264" s="19">
@@ -9453,7 +9046,7 @@
       <c r="F265" s="10">
         <v>2</v>
       </c>
-      <c r="G265" s="46">
+      <c r="G265" s="38">
         <v>44043</v>
       </c>
       <c r="H265" s="13">
@@ -9485,7 +9078,7 @@
       <c r="F266" s="10">
         <v>4</v>
       </c>
-      <c r="G266" s="46">
+      <c r="G266" s="38">
         <v>44043</v>
       </c>
       <c r="H266" s="13">
@@ -9517,7 +9110,7 @@
       <c r="F267" s="16">
         <v>3</v>
       </c>
-      <c r="G267" s="46">
+      <c r="G267" s="38">
         <v>44043</v>
       </c>
       <c r="H267" s="19">
@@ -9549,7 +9142,7 @@
       <c r="F268" s="10">
         <v>2</v>
       </c>
-      <c r="G268" s="46">
+      <c r="G268" s="38">
         <v>44043</v>
       </c>
       <c r="H268" s="13">
@@ -9581,7 +9174,7 @@
       <c r="F269" s="10">
         <v>5</v>
       </c>
-      <c r="G269" s="46">
+      <c r="G269" s="38">
         <v>44043</v>
       </c>
       <c r="H269" s="13">
@@ -9613,7 +9206,7 @@
       <c r="F270" s="16">
         <v>1</v>
       </c>
-      <c r="G270" s="46">
+      <c r="G270" s="38">
         <v>44043</v>
       </c>
       <c r="H270" s="19">
@@ -9645,7 +9238,7 @@
       <c r="F271" s="16">
         <v>1</v>
       </c>
-      <c r="G271" s="46">
+      <c r="G271" s="38">
         <v>44043</v>
       </c>
       <c r="H271" s="19">
@@ -9677,7 +9270,7 @@
       <c r="F272" s="10">
         <v>2</v>
       </c>
-      <c r="G272" s="46">
+      <c r="G272" s="38">
         <v>44043</v>
       </c>
       <c r="H272" s="13">
@@ -9709,7 +9302,7 @@
       <c r="F273" s="10">
         <v>4</v>
       </c>
-      <c r="G273" s="46">
+      <c r="G273" s="38">
         <v>44043</v>
       </c>
       <c r="H273" s="13">
@@ -9741,7 +9334,7 @@
       <c r="F274" s="16">
         <v>5</v>
       </c>
-      <c r="G274" s="46">
+      <c r="G274" s="38">
         <v>44043</v>
       </c>
       <c r="H274" s="19">
@@ -9773,7 +9366,7 @@
       <c r="F275" s="16">
         <v>2</v>
       </c>
-      <c r="G275" s="46">
+      <c r="G275" s="38">
         <v>44043</v>
       </c>
       <c r="H275" s="19">
@@ -9805,7 +9398,7 @@
       <c r="F276" s="10">
         <v>4</v>
       </c>
-      <c r="G276" s="46">
+      <c r="G276" s="38">
         <v>44043</v>
       </c>
       <c r="H276" s="13">
@@ -9837,7 +9430,7 @@
       <c r="F277" s="16">
         <v>3</v>
       </c>
-      <c r="G277" s="46">
+      <c r="G277" s="38">
         <v>44043</v>
       </c>
       <c r="H277" s="19">
@@ -9869,7 +9462,7 @@
       <c r="F278" s="22">
         <v>5</v>
       </c>
-      <c r="G278" s="46">
+      <c r="G278" s="38">
         <v>44043</v>
       </c>
       <c r="H278" s="19">
@@ -9901,7 +9494,7 @@
       <c r="F279" s="7">
         <v>3</v>
       </c>
-      <c r="G279" s="46">
+      <c r="G279" s="38">
         <v>44043</v>
       </c>
       <c r="H279" s="13">
@@ -9933,7 +9526,7 @@
       <c r="F280" s="22">
         <v>3</v>
       </c>
-      <c r="G280" s="46">
+      <c r="G280" s="38">
         <v>44043</v>
       </c>
       <c r="H280" s="19">
@@ -9965,7 +9558,7 @@
       <c r="F281" s="7">
         <v>2</v>
       </c>
-      <c r="G281" s="46">
+      <c r="G281" s="38">
         <v>44043</v>
       </c>
       <c r="H281" s="13">
@@ -9997,7 +9590,7 @@
       <c r="F282" s="7">
         <v>5</v>
       </c>
-      <c r="G282" s="46">
+      <c r="G282" s="38">
         <v>44043</v>
       </c>
       <c r="H282" s="13">
@@ -10029,7 +9622,7 @@
       <c r="F283" s="7">
         <v>3</v>
       </c>
-      <c r="G283" s="46">
+      <c r="G283" s="38">
         <v>44043</v>
       </c>
       <c r="H283" s="13">
@@ -10061,7 +9654,7 @@
       <c r="F284" s="22">
         <v>1</v>
       </c>
-      <c r="G284" s="46">
+      <c r="G284" s="38">
         <v>44043</v>
       </c>
       <c r="H284" s="19">
@@ -10093,7 +9686,7 @@
       <c r="F285" s="22">
         <v>4</v>
       </c>
-      <c r="G285" s="46">
+      <c r="G285" s="38">
         <v>44043</v>
       </c>
       <c r="H285" s="19">
@@ -10125,7 +9718,7 @@
       <c r="F286" s="22">
         <v>4</v>
       </c>
-      <c r="G286" s="46">
+      <c r="G286" s="38">
         <v>44043</v>
       </c>
       <c r="H286" s="19">
@@ -10157,7 +9750,7 @@
       <c r="F287" s="7">
         <v>4</v>
       </c>
-      <c r="G287" s="46">
+      <c r="G287" s="38">
         <v>44043</v>
       </c>
       <c r="H287" s="13">
@@ -10189,7 +9782,7 @@
       <c r="F288" s="22">
         <v>4</v>
       </c>
-      <c r="G288" s="46">
+      <c r="G288" s="38">
         <v>44043</v>
       </c>
       <c r="H288" s="19">
@@ -10221,7 +9814,7 @@
       <c r="F289" s="22">
         <v>2</v>
       </c>
-      <c r="G289" s="46">
+      <c r="G289" s="38">
         <v>44043</v>
       </c>
       <c r="H289" s="19">
@@ -10253,7 +9846,7 @@
       <c r="F290" s="7">
         <v>2</v>
       </c>
-      <c r="G290" s="46">
+      <c r="G290" s="38">
         <v>44043</v>
       </c>
       <c r="H290" s="13">
@@ -10285,7 +9878,7 @@
       <c r="F291" s="7">
         <v>5</v>
       </c>
-      <c r="G291" s="46">
+      <c r="G291" s="38">
         <v>44043</v>
       </c>
       <c r="H291" s="13">
@@ -10317,7 +9910,7 @@
       <c r="F292" s="7">
         <v>4</v>
       </c>
-      <c r="G292" s="46">
+      <c r="G292" s="38">
         <v>44043</v>
       </c>
       <c r="H292" s="13">
@@ -10349,7 +9942,7 @@
       <c r="F293" s="7">
         <v>5</v>
       </c>
-      <c r="G293" s="46">
+      <c r="G293" s="38">
         <v>44043</v>
       </c>
       <c r="H293" s="13">
@@ -10381,7 +9974,7 @@
       <c r="F294" s="7">
         <v>4</v>
       </c>
-      <c r="G294" s="46">
+      <c r="G294" s="38">
         <v>44043</v>
       </c>
       <c r="H294" s="13">
@@ -10413,7 +10006,7 @@
       <c r="F295" s="22">
         <v>2</v>
       </c>
-      <c r="G295" s="46">
+      <c r="G295" s="38">
         <v>44043</v>
       </c>
       <c r="H295" s="19">
@@ -10445,7 +10038,7 @@
       <c r="F296" s="7">
         <v>2</v>
       </c>
-      <c r="G296" s="46">
+      <c r="G296" s="38">
         <v>44043</v>
       </c>
       <c r="H296" s="13">
@@ -10477,7 +10070,7 @@
       <c r="F297" s="22">
         <v>3</v>
       </c>
-      <c r="G297" s="46">
+      <c r="G297" s="38">
         <v>44043</v>
       </c>
       <c r="H297" s="19">
@@ -10509,7 +10102,7 @@
       <c r="F298" s="22">
         <v>2</v>
       </c>
-      <c r="G298" s="46">
+      <c r="G298" s="38">
         <v>44043</v>
       </c>
       <c r="H298" s="19">
@@ -10541,7 +10134,7 @@
       <c r="F299" s="22">
         <v>4</v>
       </c>
-      <c r="G299" s="46">
+      <c r="G299" s="38">
         <v>44043</v>
       </c>
       <c r="H299" s="19">
@@ -10573,7 +10166,7 @@
       <c r="F300" s="7">
         <v>4</v>
       </c>
-      <c r="G300" s="46">
+      <c r="G300" s="38">
         <v>44043</v>
       </c>
       <c r="H300" s="13">
@@ -10605,7 +10198,7 @@
       <c r="F301" s="22">
         <v>3</v>
       </c>
-      <c r="G301" s="46">
+      <c r="G301" s="38">
         <v>44043</v>
       </c>
       <c r="H301" s="19">
@@ -10637,7 +10230,7 @@
       <c r="F302" s="7">
         <v>4</v>
       </c>
-      <c r="G302" s="46">
+      <c r="G302" s="38">
         <v>44043</v>
       </c>
       <c r="H302" s="13">
@@ -10669,7 +10262,7 @@
       <c r="F303" s="22">
         <v>5</v>
       </c>
-      <c r="G303" s="46">
+      <c r="G303" s="38">
         <v>44043</v>
       </c>
       <c r="H303" s="19">
@@ -10701,7 +10294,7 @@
       <c r="F304" s="22">
         <v>4</v>
       </c>
-      <c r="G304" s="46">
+      <c r="G304" s="38">
         <v>44043</v>
       </c>
       <c r="H304" s="19">
@@ -10733,7 +10326,7 @@
       <c r="F305" s="7">
         <v>2</v>
       </c>
-      <c r="G305" s="46">
+      <c r="G305" s="38">
         <v>44043</v>
       </c>
       <c r="H305" s="13">
@@ -10765,7 +10358,7 @@
       <c r="F306" s="7">
         <v>5</v>
       </c>
-      <c r="G306" s="46">
+      <c r="G306" s="38">
         <v>44043</v>
       </c>
       <c r="H306" s="13">
@@ -10797,7 +10390,7 @@
       <c r="F307" s="22">
         <v>5</v>
       </c>
-      <c r="G307" s="46">
+      <c r="G307" s="38">
         <v>44043</v>
       </c>
       <c r="H307" s="19">
@@ -10829,7 +10422,7 @@
       <c r="F308" s="7">
         <v>3</v>
       </c>
-      <c r="G308" s="46">
+      <c r="G308" s="38">
         <v>44043</v>
       </c>
       <c r="H308" s="13">
@@ -10861,7 +10454,7 @@
       <c r="F309" s="7">
         <v>4</v>
       </c>
-      <c r="G309" s="46">
+      <c r="G309" s="38">
         <v>44043</v>
       </c>
       <c r="H309" s="13">
@@ -10893,7 +10486,7 @@
       <c r="F310" s="22">
         <v>2</v>
       </c>
-      <c r="G310" s="46">
+      <c r="G310" s="38">
         <v>44043</v>
       </c>
       <c r="H310" s="19">
@@ -10926,7 +10519,7 @@
       <c r="F311" s="22">
         <v>5</v>
       </c>
-      <c r="G311" s="46">
+      <c r="G311" s="38">
         <v>44043</v>
       </c>
       <c r="H311" s="19">
@@ -10958,7 +10551,7 @@
       <c r="F312" s="7">
         <v>5</v>
       </c>
-      <c r="G312" s="46">
+      <c r="G312" s="38">
         <v>44043</v>
       </c>
       <c r="H312" s="13">
@@ -10990,7 +10583,7 @@
       <c r="F313" s="7">
         <v>1</v>
       </c>
-      <c r="G313" s="46">
+      <c r="G313" s="38">
         <v>44043</v>
       </c>
       <c r="H313" s="13">
@@ -11022,7 +10615,7 @@
       <c r="F314" s="7">
         <v>1</v>
       </c>
-      <c r="G314" s="46">
+      <c r="G314" s="38">
         <v>44043</v>
       </c>
       <c r="H314" s="13">
@@ -11054,7 +10647,7 @@
       <c r="F315" s="7">
         <v>4</v>
       </c>
-      <c r="G315" s="46">
+      <c r="G315" s="38">
         <v>44043</v>
       </c>
       <c r="H315" s="13">
@@ -11086,7 +10679,7 @@
       <c r="F316" s="7">
         <v>3</v>
       </c>
-      <c r="G316" s="46">
+      <c r="G316" s="38">
         <v>44043</v>
       </c>
       <c r="H316" s="13">
@@ -11118,7 +10711,7 @@
       <c r="F317" s="10">
         <v>4</v>
       </c>
-      <c r="G317" s="46">
+      <c r="G317" s="38">
         <v>44043</v>
       </c>
       <c r="H317" s="13">
@@ -11150,7 +10743,7 @@
       <c r="F318" s="16">
         <v>5</v>
       </c>
-      <c r="G318" s="46">
+      <c r="G318" s="38">
         <v>44043</v>
       </c>
       <c r="H318" s="19">
@@ -11183,7 +10776,7 @@
       <c r="F319" s="10">
         <v>1</v>
       </c>
-      <c r="G319" s="46">
+      <c r="G319" s="38">
         <v>44043</v>
       </c>
       <c r="H319" s="13">
@@ -11215,7 +10808,7 @@
       <c r="F320" s="10">
         <v>3</v>
       </c>
-      <c r="G320" s="46">
+      <c r="G320" s="38">
         <v>44043</v>
       </c>
       <c r="H320" s="13">
@@ -11247,7 +10840,7 @@
       <c r="F321" s="16">
         <v>5</v>
       </c>
-      <c r="G321" s="46">
+      <c r="G321" s="38">
         <v>44043</v>
       </c>
       <c r="H321" s="19">
@@ -11279,7 +10872,7 @@
       <c r="F322" s="16">
         <v>4</v>
       </c>
-      <c r="G322" s="46">
+      <c r="G322" s="38">
         <v>44043</v>
       </c>
       <c r="H322" s="19">
@@ -11311,7 +10904,7 @@
       <c r="F323" s="16">
         <v>2</v>
       </c>
-      <c r="G323" s="46">
+      <c r="G323" s="38">
         <v>44043</v>
       </c>
       <c r="H323" s="19">
@@ -11343,7 +10936,7 @@
       <c r="F324" s="10">
         <v>1</v>
       </c>
-      <c r="G324" s="46">
+      <c r="G324" s="38">
         <v>44043</v>
       </c>
       <c r="H324" s="13">
@@ -11375,7 +10968,7 @@
       <c r="F325" s="10">
         <v>2</v>
       </c>
-      <c r="G325" s="46">
+      <c r="G325" s="38">
         <v>44043</v>
       </c>
       <c r="H325" s="13">
@@ -11407,7 +11000,7 @@
       <c r="F326" s="16">
         <v>2</v>
       </c>
-      <c r="G326" s="46">
+      <c r="G326" s="38">
         <v>44043</v>
       </c>
       <c r="H326" s="19">
@@ -11439,7 +11032,7 @@
       <c r="F327" s="10">
         <v>1</v>
       </c>
-      <c r="G327" s="46">
+      <c r="G327" s="38">
         <v>44043</v>
       </c>
       <c r="H327" s="13">
@@ -11471,7 +11064,7 @@
       <c r="F328" s="16">
         <v>4</v>
       </c>
-      <c r="G328" s="46">
+      <c r="G328" s="38">
         <v>44043</v>
       </c>
       <c r="H328" s="19">
@@ -11504,7 +11097,7 @@
       <c r="F329" s="16">
         <v>3</v>
       </c>
-      <c r="G329" s="46">
+      <c r="G329" s="38">
         <v>44043</v>
       </c>
       <c r="H329" s="19">
@@ -11536,7 +11129,7 @@
       <c r="F330" s="16">
         <v>4</v>
       </c>
-      <c r="G330" s="46">
+      <c r="G330" s="38">
         <v>44043</v>
       </c>
       <c r="H330" s="19">
@@ -11568,7 +11161,7 @@
       <c r="F331" s="16">
         <v>4</v>
       </c>
-      <c r="G331" s="46">
+      <c r="G331" s="38">
         <v>44043</v>
       </c>
       <c r="H331" s="19">
@@ -11600,7 +11193,7 @@
       <c r="F332" s="10">
         <v>2</v>
       </c>
-      <c r="G332" s="46">
+      <c r="G332" s="38">
         <v>44043</v>
       </c>
       <c r="H332" s="13">
@@ -11632,7 +11225,7 @@
       <c r="F333" s="10">
         <v>2</v>
       </c>
-      <c r="G333" s="46">
+      <c r="G333" s="38">
         <v>44043</v>
       </c>
       <c r="H333" s="13">
@@ -11664,7 +11257,7 @@
       <c r="F334" s="16">
         <v>5</v>
       </c>
-      <c r="G334" s="46">
+      <c r="G334" s="38">
         <v>44043</v>
       </c>
       <c r="H334" s="19">
@@ -11696,7 +11289,7 @@
       <c r="F335" s="16">
         <v>1</v>
       </c>
-      <c r="G335" s="46">
+      <c r="G335" s="38">
         <v>44043</v>
       </c>
       <c r="H335" s="19">
@@ -11728,7 +11321,7 @@
       <c r="F336" s="16">
         <v>5</v>
       </c>
-      <c r="G336" s="46">
+      <c r="G336" s="38">
         <v>44043</v>
       </c>
       <c r="H336" s="19">
@@ -11760,7 +11353,7 @@
       <c r="F337" s="10">
         <v>5</v>
       </c>
-      <c r="G337" s="46">
+      <c r="G337" s="38">
         <v>44043</v>
       </c>
       <c r="H337" s="13">
@@ -11792,7 +11385,7 @@
       <c r="F338" s="16">
         <v>5</v>
       </c>
-      <c r="G338" s="46">
+      <c r="G338" s="38">
         <v>44043</v>
       </c>
       <c r="H338" s="19">
@@ -11824,7 +11417,7 @@
       <c r="F339" s="10">
         <v>2</v>
       </c>
-      <c r="G339" s="46">
+      <c r="G339" s="38">
         <v>44043</v>
       </c>
       <c r="H339" s="13">
@@ -11856,7 +11449,7 @@
       <c r="F340" s="16">
         <v>2</v>
       </c>
-      <c r="G340" s="46">
+      <c r="G340" s="38">
         <v>44043</v>
       </c>
       <c r="H340" s="19">
@@ -11888,7 +11481,7 @@
       <c r="F341" s="16">
         <v>2</v>
       </c>
-      <c r="G341" s="46">
+      <c r="G341" s="38">
         <v>44043</v>
       </c>
       <c r="H341" s="19">
@@ -11920,7 +11513,7 @@
       <c r="F342" s="10">
         <v>1</v>
       </c>
-      <c r="G342" s="46">
+      <c r="G342" s="38">
         <v>44043</v>
       </c>
       <c r="H342" s="13">
@@ -11952,7 +11545,7 @@
       <c r="F343" s="16">
         <v>1</v>
       </c>
-      <c r="G343" s="46">
+      <c r="G343" s="38">
         <v>44043</v>
       </c>
       <c r="H343" s="19">
@@ -11984,7 +11577,7 @@
       <c r="F344" s="16">
         <v>1</v>
       </c>
-      <c r="G344" s="46">
+      <c r="G344" s="38">
         <v>44043</v>
       </c>
       <c r="H344" s="19">
@@ -12016,7 +11609,7 @@
       <c r="F345" s="16">
         <v>3</v>
       </c>
-      <c r="G345" s="46">
+      <c r="G345" s="38">
         <v>44043</v>
       </c>
       <c r="H345" s="19">
@@ -12048,7 +11641,7 @@
       <c r="F346" s="16">
         <v>2</v>
       </c>
-      <c r="G346" s="46">
+      <c r="G346" s="38">
         <v>44043</v>
       </c>
       <c r="H346" s="19">
@@ -12080,7 +11673,7 @@
       <c r="F347" s="10">
         <v>2</v>
       </c>
-      <c r="G347" s="46">
+      <c r="G347" s="38">
         <v>44043</v>
       </c>
       <c r="H347" s="13">
@@ -12112,7 +11705,7 @@
       <c r="F348" s="16">
         <v>5</v>
       </c>
-      <c r="G348" s="46">
+      <c r="G348" s="38">
         <v>44043</v>
       </c>
       <c r="H348" s="19">
@@ -12144,7 +11737,7 @@
       <c r="F349" s="16">
         <v>1</v>
       </c>
-      <c r="G349" s="46">
+      <c r="G349" s="38">
         <v>44043</v>
       </c>
       <c r="H349" s="19">
@@ -12176,7 +11769,7 @@
       <c r="F350" s="10">
         <v>5</v>
       </c>
-      <c r="G350" s="46">
+      <c r="G350" s="38">
         <v>44043</v>
       </c>
       <c r="H350" s="13">
@@ -12208,7 +11801,7 @@
       <c r="F351" s="16">
         <v>2</v>
       </c>
-      <c r="G351" s="46">
+      <c r="G351" s="38">
         <v>44043</v>
       </c>
       <c r="H351" s="19">
@@ -12240,7 +11833,7 @@
       <c r="F352" s="10">
         <v>5</v>
       </c>
-      <c r="G352" s="46">
+      <c r="G352" s="38">
         <v>44043</v>
       </c>
       <c r="H352" s="13">
@@ -12272,7 +11865,7 @@
       <c r="F353" s="16">
         <v>3</v>
       </c>
-      <c r="G353" s="46">
+      <c r="G353" s="38">
         <v>44043</v>
       </c>
       <c r="H353" s="19">
@@ -12304,7 +11897,7 @@
       <c r="F354" s="16">
         <v>4</v>
       </c>
-      <c r="G354" s="46">
+      <c r="G354" s="38">
         <v>44043</v>
       </c>
       <c r="H354" s="19">
@@ -12337,7 +11930,7 @@
       <c r="F355" s="16">
         <v>3</v>
       </c>
-      <c r="G355" s="46">
+      <c r="G355" s="38">
         <v>44043</v>
       </c>
       <c r="H355" s="19">
@@ -12369,7 +11962,7 @@
       <c r="F356" s="10">
         <v>2</v>
       </c>
-      <c r="G356" s="46">
+      <c r="G356" s="38">
         <v>44043</v>
       </c>
       <c r="H356" s="13">
@@ -12401,7 +11994,7 @@
       <c r="F357" s="16">
         <v>3</v>
       </c>
-      <c r="G357" s="46">
+      <c r="G357" s="38">
         <v>44043</v>
       </c>
       <c r="H357" s="19">
@@ -12433,7 +12026,7 @@
       <c r="F358" s="10">
         <v>2</v>
       </c>
-      <c r="G358" s="46">
+      <c r="G358" s="38">
         <v>44043</v>
       </c>
       <c r="H358" s="13">
@@ -12465,7 +12058,7 @@
       <c r="F359" s="10">
         <v>2</v>
       </c>
-      <c r="G359" s="46">
+      <c r="G359" s="38">
         <v>44043</v>
       </c>
       <c r="H359" s="13">
@@ -12497,7 +12090,7 @@
       <c r="F360" s="10">
         <v>1</v>
       </c>
-      <c r="G360" s="46">
+      <c r="G360" s="38">
         <v>44043</v>
       </c>
       <c r="H360" s="13">
@@ -12529,7 +12122,7 @@
       <c r="F361" s="16">
         <v>1</v>
       </c>
-      <c r="G361" s="46">
+      <c r="G361" s="38">
         <v>44043</v>
       </c>
       <c r="H361" s="19">
@@ -12561,7 +12154,7 @@
       <c r="F362" s="16">
         <v>1</v>
       </c>
-      <c r="G362" s="46">
+      <c r="G362" s="38">
         <v>44043</v>
       </c>
       <c r="H362" s="19">
@@ -12593,7 +12186,7 @@
       <c r="F363" s="16">
         <v>5</v>
       </c>
-      <c r="G363" s="46">
+      <c r="G363" s="38">
         <v>44043</v>
       </c>
       <c r="H363" s="19">
@@ -12625,7 +12218,7 @@
       <c r="F364" s="10">
         <v>2</v>
       </c>
-      <c r="G364" s="46">
+      <c r="G364" s="38">
         <v>44043</v>
       </c>
       <c r="H364" s="13">
@@ -12657,7 +12250,7 @@
       <c r="F365" s="10">
         <v>3</v>
       </c>
-      <c r="G365" s="46">
+      <c r="G365" s="38">
         <v>44043</v>
       </c>
       <c r="H365" s="13">
@@ -12689,7 +12282,7 @@
       <c r="F366" s="16">
         <v>1</v>
       </c>
-      <c r="G366" s="46">
+      <c r="G366" s="38">
         <v>44043</v>
       </c>
       <c r="H366" s="19">
@@ -12722,7 +12315,7 @@
       <c r="F367" s="10">
         <v>3</v>
       </c>
-      <c r="G367" s="46">
+      <c r="G367" s="38">
         <v>44043</v>
       </c>
       <c r="H367" s="13">
@@ -12754,7 +12347,7 @@
       <c r="F368" s="10">
         <v>2</v>
       </c>
-      <c r="G368" s="46">
+      <c r="G368" s="38">
         <v>44043</v>
       </c>
       <c r="H368" s="13">
@@ -12786,7 +12379,7 @@
       <c r="F369" s="10">
         <v>3</v>
       </c>
-      <c r="G369" s="46">
+      <c r="G369" s="38">
         <v>44043</v>
       </c>
       <c r="H369" s="13">
@@ -12818,7 +12411,7 @@
       <c r="F370" s="10">
         <v>5</v>
       </c>
-      <c r="G370" s="46">
+      <c r="G370" s="38">
         <v>44043</v>
       </c>
       <c r="H370" s="13">
@@ -12850,7 +12443,7 @@
       <c r="F371" s="10">
         <v>1</v>
       </c>
-      <c r="G371" s="46">
+      <c r="G371" s="38">
         <v>44043</v>
       </c>
       <c r="H371" s="13">
@@ -12882,7 +12475,7 @@
       <c r="F372" s="10">
         <v>1</v>
       </c>
-      <c r="G372" s="46">
+      <c r="G372" s="38">
         <v>44043</v>
       </c>
       <c r="H372" s="13">
@@ -12914,7 +12507,7 @@
       <c r="F373" s="10">
         <v>1</v>
       </c>
-      <c r="G373" s="46">
+      <c r="G373" s="38">
         <v>44043</v>
       </c>
       <c r="H373" s="13">
@@ -12946,7 +12539,7 @@
       <c r="F374" s="16">
         <v>3</v>
       </c>
-      <c r="G374" s="46">
+      <c r="G374" s="38">
         <v>44043</v>
       </c>
       <c r="H374" s="19">
@@ -12978,7 +12571,7 @@
       <c r="F375" s="16">
         <v>5</v>
       </c>
-      <c r="G375" s="46">
+      <c r="G375" s="38">
         <v>44043</v>
       </c>
       <c r="H375" s="19">
@@ -13011,7 +12604,7 @@
       <c r="F376" s="10">
         <v>4</v>
       </c>
-      <c r="G376" s="46">
+      <c r="G376" s="38">
         <v>44043</v>
       </c>
       <c r="H376" s="13">
@@ -13043,7 +12636,7 @@
       <c r="F377" s="16">
         <v>1</v>
       </c>
-      <c r="G377" s="46">
+      <c r="G377" s="38">
         <v>44043</v>
       </c>
       <c r="H377" s="19">
@@ -13075,7 +12668,7 @@
       <c r="F378" s="10">
         <v>2</v>
       </c>
-      <c r="G378" s="46">
+      <c r="G378" s="38">
         <v>44043</v>
       </c>
       <c r="H378" s="13">
@@ -13107,7 +12700,7 @@
       <c r="F379" s="10">
         <v>4</v>
       </c>
-      <c r="G379" s="46">
+      <c r="G379" s="38">
         <v>44043</v>
       </c>
       <c r="H379" s="13">
@@ -13139,7 +12732,7 @@
       <c r="F380" s="16">
         <v>5</v>
       </c>
-      <c r="G380" s="46">
+      <c r="G380" s="38">
         <v>44043</v>
       </c>
       <c r="H380" s="19">
@@ -13171,7 +12764,7 @@
       <c r="F381" s="10">
         <v>2</v>
       </c>
-      <c r="G381" s="46">
+      <c r="G381" s="38">
         <v>44043</v>
       </c>
       <c r="H381" s="13">
@@ -13203,7 +12796,7 @@
       <c r="F382" s="10">
         <v>1</v>
       </c>
-      <c r="G382" s="46">
+      <c r="G382" s="38">
         <v>44043</v>
       </c>
       <c r="H382" s="13">
@@ -13235,7 +12828,7 @@
       <c r="F383" s="10">
         <v>5</v>
       </c>
-      <c r="G383" s="46">
+      <c r="G383" s="38">
         <v>44043</v>
       </c>
       <c r="H383" s="13">
@@ -13267,7 +12860,7 @@
       <c r="F384" s="10">
         <v>2</v>
       </c>
-      <c r="G384" s="46">
+      <c r="G384" s="38">
         <v>44043</v>
       </c>
       <c r="H384" s="13">
@@ -13299,7 +12892,7 @@
       <c r="F385" s="16">
         <v>3</v>
       </c>
-      <c r="G385" s="46">
+      <c r="G385" s="38">
         <v>44043</v>
       </c>
       <c r="H385" s="19">
@@ -13331,7 +12924,7 @@
       <c r="F386" s="10">
         <v>2</v>
       </c>
-      <c r="G386" s="46">
+      <c r="G386" s="38">
         <v>44043</v>
       </c>
       <c r="H386" s="13">
@@ -32001,7 +31594,7 @@
   <customSheetViews>
     <customSheetView guid="{7C575CA0-4279-4B75-9B8E-BE4441FF8C91}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:I967" xr:uid="{00000000-0000-0000-0000-000000000000}">
+      <autoFilter ref="A1:I967" xr:uid="{030CE5E2-2877-404C-95AC-D61379A0F684}">
         <filterColumn colId="2">
           <filters>
             <filter val="1"/>
@@ -32013,1271 +31606,4 @@
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:B22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="4.44140625" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="38" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="37">
-        <v>1</v>
-      </c>
-      <c r="B2" s="37">
-        <v>3.48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="37">
-        <v>2</v>
-      </c>
-      <c r="B3" s="37">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="37">
-        <v>3</v>
-      </c>
-      <c r="B4" s="37">
-        <v>5.27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="37">
-        <v>4</v>
-      </c>
-      <c r="B5" s="37">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="37">
-        <v>5</v>
-      </c>
-      <c r="B6" s="37">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="37">
-        <v>6</v>
-      </c>
-      <c r="B7" s="37">
-        <v>2.4500000000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="37">
-        <v>7</v>
-      </c>
-      <c r="B8" s="37">
-        <v>3.52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="37">
-        <v>8</v>
-      </c>
-      <c r="B9" s="37">
-        <v>3.94</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="37">
-        <v>9</v>
-      </c>
-      <c r="B10" s="37">
-        <v>1.48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="37">
-        <v>10</v>
-      </c>
-      <c r="B11" s="37">
-        <v>2.68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="37">
-        <v>11</v>
-      </c>
-      <c r="B12" s="37">
-        <v>3.17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="37">
-        <v>12</v>
-      </c>
-      <c r="B13" s="37">
-        <v>1.84</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="37">
-        <v>13</v>
-      </c>
-      <c r="B14" s="37">
-        <v>1.96</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="37">
-        <v>14</v>
-      </c>
-      <c r="B15" s="37">
-        <v>2.61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="37">
-        <v>15</v>
-      </c>
-      <c r="B16" s="37">
-        <v>3.67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="37">
-        <v>16</v>
-      </c>
-      <c r="B17" s="37">
-        <v>2.4900000000000002</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="37">
-        <v>17</v>
-      </c>
-      <c r="B18" s="37">
-        <v>3.25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="37">
-        <v>18</v>
-      </c>
-      <c r="B19" s="37">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="37">
-        <v>19</v>
-      </c>
-      <c r="B20" s="37">
-        <v>3.12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="37">
-        <v>20</v>
-      </c>
-      <c r="B21" s="37">
-        <v>3.48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="39">
-        <f>AVERAGE(B2:B21)</f>
-        <v>3.1655000000000006</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:B1000"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="98.6640625" customWidth="1"/>
-    <col min="2" max="6" width="14.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="212.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41"/>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="42"/>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="41"/>
-    </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="41"/>
-    </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="41"/>
-    </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="41"/>
-    </row>
-    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="41"/>
-    </row>
-    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="41"/>
-    </row>
-    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="41"/>
-    </row>
-    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="41"/>
-    </row>
-    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:2" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="43"/>
-      <c r="B15" s="44"/>
-    </row>
-    <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="45"/>
-    </row>
-    <row r="17" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="45"/>
-    </row>
-    <row r="18" spans="1:1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="45"/>
-    </row>
-    <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
-</worksheet>
 </file>